--- a/www/ig/nos/CodeSystem-TRE-R75-InseeNAFrev2Niveau5.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R75-InseeNAFrev2Niveau5.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.47</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.47</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-04-24T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/nos/CodeSystem-TRE-R75-InseeNAFrev2Niveau5.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R75-InseeNAFrev2Niveau5.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
